--- a/Document/Database/software course.xlsx
+++ b/Document/Database/software course.xlsx
@@ -577,13 +577,13 @@
     <t>An introduction to the fundamental principles of chemistry. Topics discussed will include atomic structure, bonding, stoichiometry, enthalpy, solutions, organic compounds. Lab component: Introduction to standard chemistry laboratory techniques.</t>
   </si>
   <si>
-    <t>['Students will be introduced to the concepts of engineering design and communications.  In addition, the consequences of engineering projects on society will be explored.', '    0.000 OR     3.', '    0.000 OR     3.', '    0.000 OR     3.']</t>
+    <t>Students will be introduced to the concepts of engineering design and communications.  In addition, the consequences of engineering projects on society will be explored.</t>
   </si>
   <si>
     <t>Introduction to engineering mechanics including: force vectors , statics of particles and rigid bodies, centroids, mass centres, construction of free-body diagrams, analysis of structure, internal loads of structures and cables, distributed forces, moments of intertia and friction.</t>
   </si>
   <si>
-    <t>['Fundamentals of graphical communication and analysis. Manual and computer-aided sketching and drawing techniques; orthographic and pictorial projections; multi-view, isometric and oblique drawings; basic descriptive geometry; introduction to working drawings.', '    0.000 OR     3.', '    0.000 OR     3.', '    0.000 OR     4.', '    0.000 OR     1.']</t>
+    <t>Fundamentals of graphical communication and analysis. Manual and computer-aided sketching and drawing techniques; orthographic and pictorial projections; multi-view, isometric and oblique drawings; basic descriptive geometry; introduction to working drawings.</t>
   </si>
   <si>
     <t>Fundamentals of engineering economics and project financials.Social and environmental design making, time value of money, cash flows, interest, equivalence, cost estimation and comparative costing, replacement analysis, capital projects, sensitivity analysis, balance sheets. Project management concepts, skills, tools and techniques including cost, scope, quality, resources, communication, risk, procurement and stakeholder management.</t>
@@ -640,7 +640,7 @@
     <t>The purpose of this course is to provide a broad overview of many areas of computer audio, including: Digital representation and compression; Psychoacoustics; Surround Sound; Speech recognition and Music Information Retrieval; MIDI and New interfaces for music; and video game sound. We will also explore modular interactive software environments such as Max/MSP and PD.</t>
   </si>
   <si>
-    <t>["This course develops students' proficiency in critical reading and writing through the study of a wide range of non-literary and literary texts, and the study of composition, with emphasis on connections between modes of reading and writing.", '    0.000 OR     3.', '    0.000 OR     3.', '    0.000 OR     1.']</t>
+    <t>This course develops students' proficiency in critical reading and writing through the study of a wide range of non-literary and literary texts, and the study of composition, with emphasis on connections between modes of reading and writing.</t>
   </si>
   <si>
     <t>A continuation of PHYS 109: Fluid mechanics, heat and thermodynamics, waves, sound, radiation, electrostatics and electric current.</t>
